--- a/Elin_ExAncientBook/data/resource/tables/add_datas.xlsx
+++ b/Elin_ExAncientBook/data/resource/tables/add_datas.xlsx
@@ -307,10 +307,6 @@
     <t>element</t>
   </si>
   <si>
-    <t>itukiyu_charaEx_AncientShop</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>古文書研究家</t>
     <rPh sb="0" eb="3">
       <t>コモンジョ</t>
@@ -353,6 +349,10 @@
   </si>
   <si>
     <t>AncientResearcher</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_charaEx_AncientShop</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -4617,8 +4617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4978,29 +4978,29 @@
     </row>
     <row r="4" spans="1:49" ht="54">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3">
         <v>4000000</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="3">
         <v>1224</v>
@@ -5011,10 +5011,10 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P4" s="3">
-        <v>666</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="3">
         <v>5</v>
@@ -5023,20 +5023,20 @@
         <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -5047,11 +5047,11 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
@@ -5062,7 +5062,7 @@
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>

--- a/Elin_ExAncientBook/data/resource/tables/add_datas.xlsx
+++ b/Elin_ExAncientBook/data/resource/tables/add_datas.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -344,15 +344,11 @@
     <t>merchant</t>
   </si>
   <si>
-    <t>MerchantEx_AncientResearcher</t>
+    <t>itukiyu_charaEx_AncientShop</t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>AncientResearcher</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>itukiyu_charaEx_AncientShop</t>
+    <t>AncientBookResearcher</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -4617,8 +4613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4627,6 +4623,7 @@
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="14" customFormat="1" ht="27">
@@ -4976,9 +4973,9 @@
       <c r="AV3" s="3"/>
       <c r="AW3" s="3"/>
     </row>
-    <row r="4" spans="1:49" ht="54">
+    <row r="4" spans="1:49" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3">
         <v>4000000</v>
@@ -5029,9 +5026,7 @@
       <c r="U4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="V4" s="3"/>
       <c r="W4" s="3" t="s">
         <v>99</v>
       </c>
